--- a/src/main/webapp/WEB-INF/excel-templates/update_qh_ptm_result.xlsx
+++ b/src/main/webapp/WEB-INF/excel-templates/update_qh_ptm_result.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyano\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\RIMS\source\RIMS\src\main\webapp\WEB-INF\excel-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D0DB55D4-77D7-431B-8294-8325701188EA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BIM INFO" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="127">
   <si>
     <t>Thông tin chung</t>
   </si>
@@ -398,21 +399,6 @@
   </si>
   <si>
     <t>dm_nguon_thiet_bi</t>
-  </si>
-  <si>
-    <t>DEV_TEST</t>
-  </si>
-  <si>
-    <t>18/01/2018</t>
-  </si>
-  <si>
-    <t>CSHT_HCM_02553</t>
-  </si>
-  <si>
-    <t>BTC0001</t>
-  </si>
-  <si>
-    <t>BTC</t>
   </si>
   <si>
     <t>Kết quả</t>
@@ -421,7 +407,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
@@ -532,24 +518,24 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -889,11 +875,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,10 +895,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
@@ -963,7 +949,7 @@
       <c r="R1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="T1" s="13" t="s">
@@ -986,93 +972,93 @@
       </c>
     </row>
     <row r="2" spans="1:25" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="6" t="s">
+      <c r="N2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="4" customFormat="1" ht="39" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
       <c r="M3" s="3" t="s">
         <v>24</v>
       </c>
@@ -1082,81 +1068,35 @@
       <c r="O3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="9"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" s="1">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1">
-        <v>10.456789000000001</v>
-      </c>
-      <c r="I4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K4" t="s">
-        <v>105</v>
-      </c>
-      <c r="L4" t="s">
-        <v>112</v>
-      </c>
-      <c r="M4" t="s">
-        <v>116</v>
-      </c>
-      <c r="N4" t="s">
-        <v>129</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>115</v>
-      </c>
-      <c r="S4" t="s">
-        <v>116</v>
-      </c>
-      <c r="T4" t="s">
-        <v>118</v>
-      </c>
-      <c r="V4" t="s">
-        <v>91</v>
-      </c>
-      <c r="W4" t="s">
-        <v>130</v>
-      </c>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="B1:R1"/>
+    <mergeCell ref="S1:Y1"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
@@ -1166,65 +1106,49 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="B1:R1"/>
-    <mergeCell ref="S1:Y1"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$64</xm:f>
           </x14:formula1>
           <xm:sqref>E4:E1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Sheet1!$C$2:$C$9</xm:f>
           </x14:formula1>
           <xm:sqref>V4:V1048576 I4:I1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Sheet1!$D$2:$D$7</xm:f>
           </x14:formula1>
           <xm:sqref>J4:J1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Sheet1!$E$2:$E$7</xm:f>
           </x14:formula1>
           <xm:sqref>K4:K1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Sheet1!$F$2:$F$3</xm:f>
           </x14:formula1>
           <xm:sqref>L4:L1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>Sheet1!$G$2:$G$4</xm:f>
           </x14:formula1>
           <xm:sqref>S4:S1048576 Q4:Q1048576 M4:M1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
             <xm:f>Sheet1!$H$2:$H$8</xm:f>
           </x14:formula1>
@@ -1237,7 +1161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
